--- a/Import Data/16x8.xlsx
+++ b/Import Data/16x8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/dbf-propulsions/Import Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E2609F-C6AD-4822-8ACB-0836B155F12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01231F35-F01A-41FF-9B8B-0EE60EFAE7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="20736" windowHeight="10440" xr2:uid="{A0B67FB6-19DD-4E0F-8006-C1CFCAE26433}"/>
+    <workbookView xWindow="18360" yWindow="3000" windowWidth="14130" windowHeight="14790" xr2:uid="{A0B67FB6-19DD-4E0F-8006-C1CFCAE26433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="46">
   <si>
     <t>16x8</t>
   </si>
@@ -196,18 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>0.69-NaN</t>
-  </si>
-  <si>
-    <t>0.61-NaN</t>
-  </si>
-  <si>
-    <t>0.65-NaN</t>
-  </si>
-  <si>
-    <t>0.68-NaN</t>
   </si>
 </sst>
 </file>
@@ -562,13 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577F48D-9B2F-41D7-A305-A18A2C732CDE}">
   <dimension ref="A1:I528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A531"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B489" sqref="B489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +545,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -608,12 +574,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -624,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -647,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -670,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -678,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -695,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -709,7 +675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -735,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -755,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -781,7 +747,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.4</v>
       </c>
@@ -807,7 +773,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.7</v>
       </c>
@@ -833,7 +799,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1000000000000001</v>
       </c>
@@ -859,7 +825,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.5</v>
       </c>
@@ -885,7 +851,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.9</v>
       </c>
@@ -911,7 +877,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -937,7 +903,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.6</v>
       </c>
@@ -963,7 +929,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -989,7 +955,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.3</v>
       </c>
@@ -1015,7 +981,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.7</v>
       </c>
@@ -1041,7 +1007,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.0999999999999996</v>
       </c>
@@ -1067,7 +1033,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.5</v>
       </c>
@@ -1093,7 +1059,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.8</v>
       </c>
@@ -1119,7 +1085,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.2</v>
       </c>
@@ -1145,7 +1111,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.6</v>
       </c>
@@ -1171,7 +1137,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1197,7 +1163,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.3</v>
       </c>
@@ -1223,7 +1189,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.7</v>
       </c>
@@ -1249,7 +1215,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.1</v>
       </c>
@@ -1275,7 +1241,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.4</v>
       </c>
@@ -1301,7 +1267,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.8</v>
       </c>
@@ -1327,7 +1293,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.1999999999999993</v>
       </c>
@@ -1353,7 +1319,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8.6</v>
       </c>
@@ -1379,7 +1345,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8.9</v>
       </c>
@@ -1405,7 +1371,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9.3000000000000007</v>
       </c>
@@ -1431,7 +1397,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9.6999999999999993</v>
       </c>
@@ -1457,7 +1423,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -1483,7 +1449,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10.4</v>
       </c>
@@ -1509,7 +1475,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10.8</v>
       </c>
@@ -1535,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1549,7 +1515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1575,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1621,7 +1587,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.7</v>
       </c>
@@ -1647,7 +1613,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5</v>
       </c>
@@ -1673,7 +1639,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.2000000000000002</v>
       </c>
@@ -1699,7 +1665,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1725,7 +1691,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.7</v>
       </c>
@@ -1751,7 +1717,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.5</v>
       </c>
@@ -1777,7 +1743,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.2</v>
       </c>
@@ -1803,7 +1769,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1829,7 +1795,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6.7</v>
       </c>
@@ -1855,7 +1821,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7.4</v>
       </c>
@@ -1881,7 +1847,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8.1999999999999993</v>
       </c>
@@ -1907,7 +1873,7 @@
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8.9</v>
       </c>
@@ -1933,7 +1899,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9.6999999999999993</v>
       </c>
@@ -1959,7 +1925,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10.4</v>
       </c>
@@ -1985,7 +1951,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11.2</v>
       </c>
@@ -2011,7 +1977,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11.9</v>
       </c>
@@ -2037,7 +2003,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12.6</v>
       </c>
@@ -2063,7 +2029,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13.4</v>
       </c>
@@ -2089,7 +2055,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14.1</v>
       </c>
@@ -2115,7 +2081,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14.9</v>
       </c>
@@ -2141,7 +2107,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.6</v>
       </c>
@@ -2167,7 +2133,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16.399999999999999</v>
       </c>
@@ -2193,7 +2159,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17.100000000000001</v>
       </c>
@@ -2219,7 +2185,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>17.899999999999999</v>
       </c>
@@ -2245,7 +2211,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>18.600000000000001</v>
       </c>
@@ -2271,7 +2237,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19.3</v>
       </c>
@@ -2297,7 +2263,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20.100000000000001</v>
       </c>
@@ -2323,7 +2289,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20.8</v>
       </c>
@@ -2349,7 +2315,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21.6</v>
       </c>
@@ -2375,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2389,7 +2355,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2415,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2461,7 +2427,7 @@
         <v>1.9119999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.1000000000000001</v>
       </c>
@@ -2487,7 +2453,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.2000000000000002</v>
       </c>
@@ -2513,7 +2479,7 @@
         <v>1.8620000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3.4</v>
       </c>
@@ -2539,7 +2505,7 @@
         <v>1.833</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4.5</v>
       </c>
@@ -2565,7 +2531,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.6</v>
       </c>
@@ -2591,7 +2557,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6.7</v>
       </c>
@@ -2617,7 +2583,7 @@
         <v>1.724</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7.8</v>
       </c>
@@ -2643,7 +2609,7 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -2669,7 +2635,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10.1</v>
       </c>
@@ -2695,7 +2661,7 @@
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11.2</v>
       </c>
@@ -2721,7 +2687,7 @@
         <v>1.5269999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12.3</v>
       </c>
@@ -2747,7 +2713,7 @@
         <v>1.468</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13.4</v>
       </c>
@@ -2773,7 +2739,7 @@
         <v>1.401</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14.6</v>
       </c>
@@ -2799,7 +2765,7 @@
         <v>1.3320000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15.7</v>
       </c>
@@ -2825,7 +2791,7 @@
         <v>1.2609999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16.8</v>
       </c>
@@ -2851,7 +2817,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17.899999999999999</v>
       </c>
@@ -2877,7 +2843,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>19.100000000000001</v>
       </c>
@@ -2903,7 +2869,7 @@
         <v>1.0389999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20.2</v>
       </c>
@@ -2929,7 +2895,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>21.3</v>
       </c>
@@ -2955,7 +2921,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>22.4</v>
       </c>
@@ -2981,7 +2947,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23.5</v>
       </c>
@@ -3007,7 +2973,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>24.7</v>
       </c>
@@ -3033,7 +2999,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>25.8</v>
       </c>
@@ -3059,7 +3025,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>26.9</v>
       </c>
@@ -3085,7 +3051,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>28</v>
       </c>
@@ -3111,7 +3077,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>29.1</v>
       </c>
@@ -3137,7 +3103,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>30.3</v>
       </c>
@@ -3163,7 +3129,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>31.4</v>
       </c>
@@ -3189,7 +3155,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>32.5</v>
       </c>
@@ -3215,7 +3181,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3229,7 +3195,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3255,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3301,7 +3267,7 @@
         <v>3.4369999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.5</v>
       </c>
@@ -3327,7 +3293,7 @@
         <v>3.3940000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3353,7 +3319,7 @@
         <v>3.3460000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4.5</v>
       </c>
@@ -3379,7 +3345,7 @@
         <v>3.2919999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3405,7 +3371,7 @@
         <v>3.2320000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7.5</v>
       </c>
@@ -3431,7 +3397,7 @@
         <v>3.1659999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9</v>
       </c>
@@ -3457,7 +3423,7 @@
         <v>3.0920000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10.5</v>
       </c>
@@ -3483,7 +3449,7 @@
         <v>3.012</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>11.9</v>
       </c>
@@ -3509,7 +3475,7 @@
         <v>2.9249999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13.4</v>
       </c>
@@ -3535,7 +3501,7 @@
         <v>2.8319999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14.9</v>
       </c>
@@ -3561,7 +3527,7 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>16.399999999999999</v>
       </c>
@@ -3587,7 +3553,7 @@
         <v>2.6230000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>17.899999999999999</v>
       </c>
@@ -3613,7 +3579,7 @@
         <v>2.5030000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19.399999999999999</v>
       </c>
@@ -3639,7 +3605,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20.9</v>
       </c>
@@ -3665,7 +3631,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>22.4</v>
       </c>
@@ -3691,7 +3657,7 @@
         <v>2.1240000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>23.9</v>
       </c>
@@ -3717,7 +3683,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>25.4</v>
       </c>
@@ -3743,7 +3709,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>26.9</v>
       </c>
@@ -3769,7 +3735,7 @@
         <v>1.716</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>28.4</v>
       </c>
@@ -3795,7 +3761,7 @@
         <v>1.573</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>29.9</v>
       </c>
@@ -3821,7 +3787,7 @@
         <v>1.4259999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>31.4</v>
       </c>
@@ -3847,7 +3813,7 @@
         <v>1.2769999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>32.9</v>
       </c>
@@ -3873,7 +3839,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>34.299999999999997</v>
       </c>
@@ -3899,7 +3865,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>35.799999999999997</v>
       </c>
@@ -3925,7 +3891,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>37.299999999999997</v>
       </c>
@@ -3951,7 +3917,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>38.799999999999997</v>
       </c>
@@ -3977,7 +3943,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>40.299999999999997</v>
       </c>
@@ -4003,7 +3969,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>41.8</v>
       </c>
@@ -4029,7 +3995,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>43.3</v>
       </c>
@@ -4055,7 +4021,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4069,7 +4035,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4095,7 +4061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4115,7 +4081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4141,7 +4107,7 @@
         <v>5.4550000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.9</v>
       </c>
@@ -4167,7 +4133,7 @@
         <v>5.3860000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3.7</v>
       </c>
@@ -4193,7 +4159,7 @@
         <v>5.3079999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5.6</v>
       </c>
@@ -4219,7 +4185,7 @@
         <v>5.2190000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.4</v>
       </c>
@@ -4245,7 +4211,7 @@
         <v>5.1210000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9.3000000000000007</v>
       </c>
@@ -4271,7 +4237,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>11.2</v>
       </c>
@@ -4297,7 +4263,7 @@
         <v>4.8940000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>13</v>
       </c>
@@ -4323,7 +4289,7 @@
         <v>4.7629999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14.9</v>
       </c>
@@ -4349,7 +4315,7 @@
         <v>4.6219999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>16.8</v>
       </c>
@@ -4375,7 +4341,7 @@
         <v>4.4710000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18.600000000000001</v>
       </c>
@@ -4401,7 +4367,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>20.5</v>
       </c>
@@ -4427,7 +4393,7 @@
         <v>4.1369999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>22.3</v>
       </c>
@@ -4453,7 +4419,7 @@
         <v>3.9460000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24.2</v>
       </c>
@@ -4479,7 +4445,7 @@
         <v>3.7530000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>26.1</v>
       </c>
@@ -4505,7 +4471,7 @@
         <v>3.5539999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>27.9</v>
       </c>
@@ -4531,7 +4497,7 @@
         <v>3.351</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>29.8</v>
       </c>
@@ -4557,7 +4523,7 @@
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>31.6</v>
       </c>
@@ -4583,7 +4549,7 @@
         <v>2.9289999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>33.5</v>
       </c>
@@ -4609,7 +4575,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>35.4</v>
       </c>
@@ -4635,7 +4601,7 @@
         <v>2.4860000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>37.200000000000003</v>
       </c>
@@ -4661,7 +4627,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>39.1</v>
       </c>
@@ -4687,7 +4653,7 @@
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>40.9</v>
       </c>
@@ -4713,7 +4679,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>42.8</v>
       </c>
@@ -4739,7 +4705,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>44.7</v>
       </c>
@@ -4765,7 +4731,7 @@
         <v>1.2929999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>46.5</v>
       </c>
@@ -4791,7 +4757,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>48.4</v>
       </c>
@@ -4817,7 +4783,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>50.3</v>
       </c>
@@ -4843,7 +4809,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>52.1</v>
       </c>
@@ -4869,7 +4835,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>54</v>
       </c>
@@ -4895,7 +4861,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4909,7 +4875,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4935,7 +4901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4955,7 +4921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4981,7 +4947,7 @@
         <v>7.9809999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2.2000000000000002</v>
       </c>
@@ -5007,7 +4973,7 @@
         <v>7.8780000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4.5</v>
       </c>
@@ -5033,7 +4999,7 @@
         <v>7.7610000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>6.7</v>
       </c>
@@ -5059,7 +5025,7 @@
         <v>7.6289999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9</v>
       </c>
@@ -5085,7 +5051,7 @@
         <v>7.4809999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.2</v>
       </c>
@@ -5111,7 +5077,7 @@
         <v>7.319</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13.4</v>
       </c>
@@ -5137,7 +5103,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>15.7</v>
       </c>
@@ -5163,7 +5129,7 @@
         <v>6.9450000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>17.899999999999999</v>
       </c>
@@ -5189,7 +5155,7 @@
         <v>6.734</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20.100000000000001</v>
       </c>
@@ -5215,7 +5181,7 @@
         <v>6.508</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>22.4</v>
       </c>
@@ -5241,7 +5207,7 @@
         <v>6.2690000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>24.6</v>
       </c>
@@ -5267,7 +5233,7 @@
         <v>6.0119999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>26.9</v>
       </c>
@@ -5293,7 +5259,7 @@
         <v>5.7320000000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>29.1</v>
       </c>
@@ -5319,7 +5285,7 @@
         <v>5.4489999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>31.3</v>
       </c>
@@ -5345,7 +5311,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>33.6</v>
       </c>
@@ -5371,7 +5337,7 @@
         <v>4.8630000000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>35.799999999999997</v>
       </c>
@@ -5397,7 +5363,7 @@
         <v>4.5590000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>38.1</v>
       </c>
@@ -5423,7 +5389,7 @@
         <v>4.2480000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>40.299999999999997</v>
       </c>
@@ -5449,7 +5415,7 @@
         <v>3.9289999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>42.5</v>
       </c>
@@ -5475,7 +5441,7 @@
         <v>3.6019999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>44.8</v>
       </c>
@@ -5501,7 +5467,7 @@
         <v>3.266</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>47</v>
       </c>
@@ -5527,7 +5493,7 @@
         <v>2.9239999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>49.2</v>
       </c>
@@ -5553,7 +5519,7 @@
         <v>2.577</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>51.5</v>
       </c>
@@ -5579,7 +5545,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>53.7</v>
       </c>
@@ -5605,7 +5571,7 @@
         <v>1.861</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>56</v>
       </c>
@@ -5631,7 +5597,7 @@
         <v>1.498</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>58.2</v>
       </c>
@@ -5657,7 +5623,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>60.4</v>
       </c>
@@ -5683,7 +5649,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>62.7</v>
       </c>
@@ -5709,7 +5675,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>64.900000000000006</v>
       </c>
@@ -5735,7 +5701,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5749,7 +5715,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5775,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5795,7 +5761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5821,7 +5787,7 @@
         <v>11.015000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2.6</v>
       </c>
@@ -5847,7 +5813,7 @@
         <v>10.874000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5.2</v>
       </c>
@@ -5873,7 +5839,7 @@
         <v>10.712999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>7.8</v>
       </c>
@@ -5899,7 +5865,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>10.4</v>
       </c>
@@ -5925,7 +5891,7 @@
         <v>10.326000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>13.1</v>
       </c>
@@ -5951,7 +5917,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>15.7</v>
       </c>
@@ -5977,7 +5943,7 @@
         <v>9.8510000000000009</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>18.3</v>
       </c>
@@ -6003,7 +5969,7 @@
         <v>9.5790000000000006</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>20.9</v>
       </c>
@@ -6029,7 +5995,7 @@
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>23.5</v>
       </c>
@@ -6055,7 +6021,7 @@
         <v>8.9710000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>26.1</v>
       </c>
@@ -6081,7 +6047,7 @@
         <v>8.6389999999999993</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>28.7</v>
       </c>
@@ -6107,7 +6073,7 @@
         <v>8.282</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>31.3</v>
       </c>
@@ -6133,7 +6099,7 @@
         <v>7.8959999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>34</v>
       </c>
@@ -6159,7 +6125,7 @@
         <v>7.5060000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>36.6</v>
       </c>
@@ -6185,7 +6151,7 @@
         <v>7.1070000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>39.200000000000003</v>
       </c>
@@ -6211,7 +6177,7 @@
         <v>6.6989999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>41.8</v>
       </c>
@@ -6237,7 +6203,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>44.4</v>
       </c>
@@ -6263,7 +6229,7 @@
         <v>5.851</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>47</v>
       </c>
@@ -6289,7 +6255,7 @@
         <v>5.4130000000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>49.6</v>
       </c>
@@ -6315,7 +6281,7 @@
         <v>4.9619999999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>52.2</v>
       </c>
@@ -6341,7 +6307,7 @@
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>54.9</v>
       </c>
@@ -6367,7 +6333,7 @@
         <v>4.0279999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>57.5</v>
       </c>
@@ -6393,7 +6359,7 @@
         <v>3.548</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>60.1</v>
       </c>
@@ -6419,7 +6385,7 @@
         <v>3.0579999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>62.7</v>
       </c>
@@ -6445,7 +6411,7 @@
         <v>2.5619999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>65.3</v>
       </c>
@@ -6471,7 +6437,7 @@
         <v>2.0590000000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>67.900000000000006</v>
       </c>
@@ -6497,7 +6463,7 @@
         <v>1.554</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>70.5</v>
       </c>
@@ -6523,7 +6489,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>73.099999999999994</v>
       </c>
@@ -6549,7 +6515,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>75.7</v>
       </c>
@@ -6575,7 +6541,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6589,7 +6555,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6615,7 +6581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6635,7 +6601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6661,7 +6627,7 @@
         <v>14.406000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -6687,7 +6653,7 @@
         <v>14.249000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6</v>
       </c>
@@ -6713,7 +6679,7 @@
         <v>14.058</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>9</v>
       </c>
@@ -6739,7 +6705,7 @@
         <v>13.835000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>11.9</v>
       </c>
@@ -6765,7 +6731,7 @@
         <v>13.584</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>14.9</v>
       </c>
@@ -6791,7 +6757,7 @@
         <v>13.302</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>17.899999999999999</v>
       </c>
@@ -6817,7 +6783,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>20.9</v>
       </c>
@@ -6843,7 +6809,7 @@
         <v>12.645</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>23.9</v>
       </c>
@@ -6869,7 +6835,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>26.9</v>
       </c>
@@ -6895,7 +6861,7 @@
         <v>11.868</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>29.8</v>
       </c>
@@ -6921,7 +6887,7 @@
         <v>11.439</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>32.799999999999997</v>
       </c>
@@ -6947,7 +6913,7 @@
         <v>10.978999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>35.799999999999997</v>
       </c>
@@ -6973,7 +6939,7 @@
         <v>10.473000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>38.799999999999997</v>
       </c>
@@ -6999,7 +6965,7 @@
         <v>9.9580000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>41.8</v>
       </c>
@@ -7025,7 +6991,7 @@
         <v>9.4320000000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>44.8</v>
       </c>
@@ -7051,7 +7017,7 @@
         <v>8.891</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>47.7</v>
       </c>
@@ -7077,7 +7043,7 @@
         <v>8.3369999999999997</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>50.7</v>
       </c>
@@ -7103,7 +7069,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>53.7</v>
       </c>
@@ -7129,7 +7095,7 @@
         <v>7.1870000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>56.7</v>
       </c>
@@ -7155,7 +7121,7 @@
         <v>6.5890000000000004</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>59.7</v>
       </c>
@@ -7181,7 +7147,7 @@
         <v>5.9770000000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>62.7</v>
       </c>
@@ -7207,7 +7173,7 @@
         <v>5.3529999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>65.599999999999994</v>
       </c>
@@ -7233,7 +7199,7 @@
         <v>4.7149999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>68.599999999999994</v>
       </c>
@@ -7259,7 +7225,7 @@
         <v>4.0650000000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>71.599999999999994</v>
       </c>
@@ -7285,7 +7251,7 @@
         <v>3.407</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>74.599999999999994</v>
       </c>
@@ -7311,7 +7277,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>77.599999999999994</v>
       </c>
@@ -7337,7 +7303,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>80.599999999999994</v>
       </c>
@@ -7363,7 +7329,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>83.5</v>
       </c>
@@ -7389,7 +7355,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>86.5</v>
       </c>
@@ -7415,7 +7381,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7429,7 +7395,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7455,7 +7421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7475,7 +7441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7501,7 +7467,7 @@
         <v>18.274000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3.4</v>
       </c>
@@ -7527,7 +7493,7 @@
         <v>18.131</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>6.7</v>
       </c>
@@ -7553,7 +7519,7 @@
         <v>17.928000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>10.1</v>
       </c>
@@ -7579,7 +7545,7 @@
         <v>17.675000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>13.5</v>
       </c>
@@ -7605,7 +7571,7 @@
         <v>17.376000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>16.8</v>
       </c>
@@ -7631,7 +7597,7 @@
         <v>17.036000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>20.2</v>
       </c>
@@ -7657,7 +7623,7 @@
         <v>16.652999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>23.6</v>
       </c>
@@ -7683,7 +7649,7 @@
         <v>16.228999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>26.9</v>
       </c>
@@ -7709,7 +7675,7 @@
         <v>15.762</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>30.3</v>
       </c>
@@ -7735,7 +7701,7 @@
         <v>15.257</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>33.700000000000003</v>
       </c>
@@ -7761,7 +7727,7 @@
         <v>14.718</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>37</v>
       </c>
@@ -7787,7 +7753,7 @@
         <v>14.135999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>40.4</v>
       </c>
@@ -7813,7 +7779,7 @@
         <v>13.491</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>43.8</v>
       </c>
@@ -7839,7 +7805,7 @@
         <v>12.826000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>47.1</v>
       </c>
@@ -7865,7 +7831,7 @@
         <v>12.145</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>50.5</v>
       </c>
@@ -7891,7 +7857,7 @@
         <v>11.446</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>53.9</v>
       </c>
@@ -7917,7 +7883,7 @@
         <v>10.728999999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>57.2</v>
       </c>
@@ -7943,7 +7909,7 @@
         <v>9.9949999999999992</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>60.6</v>
       </c>
@@ -7969,7 +7935,7 @@
         <v>9.2409999999999997</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>64</v>
       </c>
@@ -7995,7 +7961,7 @@
         <v>8.4689999999999994</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>67.3</v>
       </c>
@@ -8021,7 +7987,7 @@
         <v>7.6790000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>70.7</v>
       </c>
@@ -8047,7 +8013,7 @@
         <v>6.8760000000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>74</v>
       </c>
@@ -8073,7 +8039,7 @@
         <v>6.0490000000000004</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>77.400000000000006</v>
       </c>
@@ -8099,7 +8065,7 @@
         <v>5.2110000000000003</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>80.8</v>
       </c>
@@ -8125,7 +8091,7 @@
         <v>4.359</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>84.1</v>
       </c>
@@ -8151,7 +8117,7 @@
         <v>3.5030000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>87.5</v>
       </c>
@@ -8177,7 +8143,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>90.9</v>
       </c>
@@ -8203,7 +8169,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>94.2</v>
       </c>
@@ -8229,7 +8195,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>97.6</v>
       </c>
@@ -8255,7 +8221,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8269,7 +8235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8295,7 +8261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8315,7 +8281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8341,7 +8307,7 @@
         <v>22.503</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3.7</v>
       </c>
@@ -8367,7 +8333,7 @@
         <v>22.472999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7.5</v>
       </c>
@@ -8393,7 +8359,7 @@
         <v>22.379000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>11.2</v>
       </c>
@@ -8419,7 +8385,7 @@
         <v>22.13</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>14.9</v>
       </c>
@@ -8445,7 +8411,7 @@
         <v>21.803999999999998</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18.7</v>
       </c>
@@ -8471,7 +8437,7 @@
         <v>21.414000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>22.4</v>
       </c>
@@ -8497,7 +8463,7 @@
         <v>20.963999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>26.1</v>
       </c>
@@ -8523,7 +8489,7 @@
         <v>20.456</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>29.9</v>
       </c>
@@ -8549,7 +8515,7 @@
         <v>19.890999999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>33.6</v>
       </c>
@@ -8575,7 +8541,7 @@
         <v>19.277000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>37.299999999999997</v>
       </c>
@@ -8601,7 +8567,7 @@
         <v>18.611999999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>41.1</v>
       </c>
@@ -8627,7 +8593,7 @@
         <v>17.895</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>44.8</v>
       </c>
@@ -8653,7 +8619,7 @@
         <v>17.091999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>48.5</v>
       </c>
@@ -8679,7 +8645,7 @@
         <v>16.254999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>52.3</v>
       </c>
@@ -8705,7 +8671,7 @@
         <v>15.397</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>56</v>
       </c>
@@ -8731,7 +8697,7 @@
         <v>14.516999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>59.7</v>
       </c>
@@ -8757,7 +8723,7 @@
         <v>13.612</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>63.5</v>
       </c>
@@ -8783,7 +8749,7 @@
         <v>12.688000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>67.2</v>
       </c>
@@ -8809,7 +8775,7 @@
         <v>11.741</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>70.900000000000006</v>
       </c>
@@ -8835,7 +8801,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>74.7</v>
       </c>
@@ -8861,7 +8827,7 @@
         <v>9.7769999999999992</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>78.400000000000006</v>
       </c>
@@ -8887,7 +8853,7 @@
         <v>8.7629999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>82.1</v>
       </c>
@@ -8913,7 +8879,7 @@
         <v>7.718</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>85.8</v>
       </c>
@@ -8939,7 +8905,7 @@
         <v>6.6630000000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>89.6</v>
       </c>
@@ -8965,7 +8931,7 @@
         <v>5.5910000000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>93.3</v>
       </c>
@@ -8991,7 +8957,7 @@
         <v>4.5170000000000003</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>97</v>
       </c>
@@ -9017,7 +8983,7 @@
         <v>3.4380000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>100.8</v>
       </c>
@@ -9043,7 +9009,7 @@
         <v>2.2959999999999998</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>104.5</v>
       </c>
@@ -9069,7 +9035,7 @@
         <v>1.161</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>108.2</v>
       </c>
@@ -9095,7 +9061,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9109,7 +9075,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9135,7 +9101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9155,7 +9121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9181,7 +9147,7 @@
         <v>27.347999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4.0999999999999996</v>
       </c>
@@ -9207,7 +9173,7 @@
         <v>27.358000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8.1999999999999993</v>
       </c>
@@ -9233,7 +9199,7 @@
         <v>27.369</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>12.3</v>
       </c>
@@ -9259,7 +9225,7 @@
         <v>27.376000000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>16.399999999999999</v>
       </c>
@@ -9285,7 +9251,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>20.5</v>
       </c>
@@ -9311,7 +9277,7 @@
         <v>26.922000000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>24.6</v>
       </c>
@@ -9337,7 +9303,7 @@
         <v>26.373000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>28.7</v>
       </c>
@@ -9363,7 +9329,7 @@
         <v>25.721</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>32.799999999999997</v>
       </c>
@@ -9389,7 +9355,7 @@
         <v>24.988</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>36.9</v>
       </c>
@@ -9415,7 +9381,7 @@
         <v>24.193000000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>41.1</v>
       </c>
@@ -9441,7 +9407,7 @@
         <v>23.347999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>45.2</v>
       </c>
@@ -9467,7 +9433,7 @@
         <v>22.443999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>49.3</v>
       </c>
@@ -9493,7 +9459,7 @@
         <v>21.434000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>53.4</v>
       </c>
@@ -9519,7 +9485,7 @@
         <v>20.373000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>57.5</v>
       </c>
@@ -9545,7 +9511,7 @@
         <v>19.292999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>61.6</v>
       </c>
@@ -9571,7 +9537,7 @@
         <v>18.187999999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>65.7</v>
       </c>
@@ -9597,7 +9563,7 @@
         <v>17.056999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>69.8</v>
       </c>
@@ -9623,7 +9589,7 @@
         <v>15.904</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>73.900000000000006</v>
       </c>
@@ -9649,7 +9615,7 @@
         <v>14.723000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>78</v>
       </c>
@@ -9675,7 +9641,7 @@
         <v>13.513999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>82.1</v>
       </c>
@@ -9701,7 +9667,7 @@
         <v>12.273999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>86.2</v>
       </c>
@@ -9727,7 +9693,7 @@
         <v>11.012</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>90.3</v>
       </c>
@@ -9753,7 +9719,7 @@
         <v>9.7189999999999994</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>94.4</v>
       </c>
@@ -9779,7 +9745,7 @@
         <v>8.3949999999999996</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>98.5</v>
       </c>
@@ -9805,7 +9771,7 @@
         <v>7.048</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>102.6</v>
       </c>
@@ -9831,7 +9797,7 @@
         <v>5.6879999999999997</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>106.7</v>
       </c>
@@ -9857,7 +9823,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>110.8</v>
       </c>
@@ -9883,7 +9849,7 @@
         <v>2.9169999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>114.9</v>
       </c>
@@ -9909,7 +9875,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>119</v>
       </c>
@@ -9935,7 +9901,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9949,7 +9915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9975,7 +9941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9995,7 +9961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -10021,7 +9987,7 @@
         <v>32.706000000000003</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4.5</v>
       </c>
@@ -10047,7 +10013,7 @@
         <v>32.715000000000003</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>8.9</v>
       </c>
@@ -10073,7 +10039,7 @@
         <v>32.718000000000004</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>13.4</v>
       </c>
@@ -10099,7 +10065,7 @@
         <v>32.735999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>17.8</v>
       </c>
@@ -10125,7 +10091,7 @@
         <v>32.747999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>22.3</v>
       </c>
@@ -10151,7 +10117,7 @@
         <v>32.759</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>26.8</v>
       </c>
@@ -10177,7 +10143,7 @@
         <v>32.54</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>31.2</v>
       </c>
@@ -10203,7 +10169,7 @@
         <v>32.085000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>35.700000000000003</v>
       </c>
@@ -10229,7 +10195,7 @@
         <v>31.486000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>40.1</v>
       </c>
@@ -10255,7 +10221,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>44.6</v>
       </c>
@@ -10281,7 +10247,7 @@
         <v>30.004000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>49.1</v>
       </c>
@@ -10307,7 +10273,7 @@
         <v>29.099</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>53.5</v>
       </c>
@@ -10333,7 +10299,7 @@
         <v>27.978000000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>58</v>
       </c>
@@ -10359,7 +10325,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>62.4</v>
       </c>
@@ -10385,7 +10351,7 @@
         <v>25.288</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>66.900000000000006</v>
       </c>
@@ -10411,7 +10377,7 @@
         <v>23.736999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>71.400000000000006</v>
       </c>
@@ -10437,7 +10403,7 @@
         <v>22.207000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>75.8</v>
       </c>
@@ -10463,7 +10429,7 @@
         <v>20.695</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>80.3</v>
       </c>
@@ -10489,7 +10455,7 @@
         <v>19.164999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>84.7</v>
       </c>
@@ -10515,7 +10481,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>89.2</v>
       </c>
@@ -10541,7 +10507,7 @@
         <v>15.977</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>93.7</v>
       </c>
@@ -10567,7 +10533,7 @@
         <v>14.321999999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>98.1</v>
       </c>
@@ -10593,7 +10559,7 @@
         <v>12.647</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>102.6</v>
       </c>
@@ -10619,7 +10585,7 @@
         <v>10.959</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>107</v>
       </c>
@@ -10645,7 +10611,7 @@
         <v>9.2490000000000006</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>111.5</v>
       </c>
@@ -10671,7 +10637,7 @@
         <v>7.5019999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>116</v>
       </c>
@@ -10697,7 +10663,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>120.4</v>
       </c>
@@ -10723,7 +10689,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>124.9</v>
       </c>
@@ -10749,7 +10715,7 @@
         <v>1.9690000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>129.30000000000001</v>
       </c>
@@ -10775,7 +10741,7 @@
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10789,7 +10755,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10815,7 +10781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10835,7 +10801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10861,7 +10827,7 @@
         <v>38.381</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4.8</v>
       </c>
@@ -10887,7 +10853,7 @@
         <v>38.384</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>9.6999999999999993</v>
       </c>
@@ -10913,7 +10879,7 @@
         <v>38.383000000000003</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>14.5</v>
       </c>
@@ -10939,7 +10905,7 @@
         <v>38.384999999999998</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>19.3</v>
       </c>
@@ -10965,7 +10931,7 @@
         <v>38.378999999999998</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>24.1</v>
       </c>
@@ -10991,7 +10957,7 @@
         <v>38.375</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>29</v>
       </c>
@@ -11017,7 +10983,7 @@
         <v>38.366</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>33.799999999999997</v>
       </c>
@@ -11043,7 +11009,7 @@
         <v>38.228000000000002</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>38.6</v>
       </c>
@@ -11069,7 +11035,7 @@
         <v>37.728000000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>43.5</v>
       </c>
@@ -11095,7 +11061,7 @@
         <v>37.066000000000003</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>48.3</v>
       </c>
@@ -11121,7 +11087,7 @@
         <v>36.262</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>53.1</v>
       </c>
@@ -11147,7 +11113,7 @@
         <v>35.313000000000002</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>57.9</v>
       </c>
@@ -11173,7 +11139,7 @@
         <v>34.119999999999997</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>62.8</v>
       </c>
@@ -11199,7 +11165,7 @@
         <v>32.645000000000003</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>67.599999999999994</v>
       </c>
@@ -11225,7 +11191,7 @@
         <v>31.097999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>72.400000000000006</v>
       </c>
@@ -11251,7 +11217,7 @@
         <v>29.545999999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>77.2</v>
       </c>
@@ -11277,7 +11243,7 @@
         <v>27.981000000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>82.1</v>
       </c>
@@ -11303,7 +11269,7 @@
         <v>26.361000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>86.9</v>
       </c>
@@ -11329,7 +11295,7 @@
         <v>24.608000000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>91.7</v>
       </c>
@@ -11355,7 +11321,7 @@
         <v>22.719000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>96.6</v>
       </c>
@@ -11381,7 +11347,7 @@
         <v>20.736000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>101.4</v>
       </c>
@@ -11407,7 +11373,7 @@
         <v>18.667000000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>106.2</v>
       </c>
@@ -11433,7 +11399,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>111</v>
       </c>
@@ -11459,7 +11425,7 @@
         <v>14.478999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>115.9</v>
       </c>
@@ -11485,7 +11451,7 @@
         <v>12.351000000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>120.7</v>
       </c>
@@ -11511,7 +11477,7 @@
         <v>10.185</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>125.5</v>
       </c>
@@ -11537,7 +11503,7 @@
         <v>7.9279999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>130.4</v>
       </c>
@@ -11563,35 +11529,33 @@
         <v>5.548</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>135.19999999999999</v>
       </c>
-      <c r="B490" t="s">
-        <v>46</v>
-      </c>
-      <c r="C490" t="e" cm="1">
-        <f t="array" ref="C490">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D490" t="e" cm="1">
-        <f t="array" ref="D490">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E490" t="e" cm="1">
-        <f t="array" ref="E490">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F490" t="e" cm="1">
-        <f t="array" ref="F490">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G490" t="e" cm="1">
-        <f t="array" ref="G490">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B490">
+        <v>0.69</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>140</v>
       </c>
@@ -11617,7 +11581,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11631,7 +11595,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11657,7 +11621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11677,7 +11641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11703,7 +11667,7 @@
         <v>44.256</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5.0999999999999996</v>
       </c>
@@ -11729,7 +11693,7 @@
         <v>44.158999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>10.3</v>
       </c>
@@ -11755,7 +11719,7 @@
         <v>44.070999999999998</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>15.4</v>
       </c>
@@ -11781,7 +11745,7 @@
         <v>43.959000000000003</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>20.6</v>
       </c>
@@ -11807,7 +11771,7 @@
         <v>43.856000000000002</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>25.7</v>
       </c>
@@ -11833,7 +11797,7 @@
         <v>43.72</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>30.8</v>
       </c>
@@ -11859,7 +11823,7 @@
         <v>43.579000000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>36</v>
       </c>
@@ -11885,7 +11849,7 @@
         <v>43.433999999999997</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>41.1</v>
       </c>
@@ -11911,7 +11875,7 @@
         <v>43.276000000000003</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>46.2</v>
       </c>
@@ -11937,7 +11901,7 @@
         <v>42.902999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>51.4</v>
       </c>
@@ -11963,7 +11927,7 @@
         <v>42.250999999999998</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>56.5</v>
       </c>
@@ -11989,7 +11953,7 @@
         <v>41.432000000000002</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>61.7</v>
       </c>
@@ -12015,7 +11979,7 @@
         <v>40.384</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>66.8</v>
       </c>
@@ -12041,7 +12005,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>71.900000000000006</v>
       </c>
@@ -12067,7 +12031,7 @@
         <v>37.167000000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>77.099999999999994</v>
       </c>
@@ -12093,7 +12057,7 @@
         <v>35.155000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>82.2</v>
       </c>
@@ -12119,7 +12083,7 @@
         <v>33.121000000000002</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>87.4</v>
       </c>
@@ -12145,7 +12109,7 @@
         <v>31.164999999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>92.5</v>
       </c>
@@ -12171,7 +12135,7 @@
         <v>29.161000000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>97.6</v>
       </c>
@@ -12197,7 +12161,7 @@
         <v>27.024999999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>102.8</v>
       </c>
@@ -12223,7 +12187,7 @@
         <v>24.727</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>107.9</v>
       </c>
@@ -12249,7 +12213,7 @@
         <v>22.324999999999999</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>113</v>
       </c>
@@ -12275,7 +12239,7 @@
         <v>19.917000000000002</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>118.2</v>
       </c>
@@ -12301,7 +12265,7 @@
         <v>17.713999999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>123.3</v>
       </c>
@@ -12327,35 +12291,33 @@
         <v>15.432</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>128.5</v>
       </c>
-      <c r="B524" t="s">
-        <v>47</v>
-      </c>
-      <c r="C524" t="e" cm="1">
-        <f t="array" ref="C524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D524" t="e" cm="1">
-        <f t="array" ref="D524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E524" t="e" cm="1">
-        <f t="array" ref="E524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F524" t="e" cm="1">
-        <f t="array" ref="F524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G524" t="e" cm="1">
-        <f t="array" ref="G524">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B524">
+        <v>0.61</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>0</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>133.6</v>
       </c>
@@ -12381,63 +12343,59 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>138.69999999999999</v>
       </c>
-      <c r="B526" t="s">
-        <v>48</v>
-      </c>
-      <c r="C526" t="e" cm="1">
-        <f t="array" ref="C526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D526" t="e" cm="1">
-        <f t="array" ref="D526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E526" t="e" cm="1">
-        <f t="array" ref="E526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F526" t="e" cm="1">
-        <f t="array" ref="F526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G526" t="e" cm="1">
-        <f t="array" ref="G526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B526">
+        <v>0.65</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>143.9</v>
       </c>
-      <c r="B527" t="s">
-        <v>49</v>
-      </c>
-      <c r="C527" t="e" cm="1">
-        <f t="array" ref="C527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D527" t="e" cm="1">
-        <f t="array" ref="D527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E527" t="e" cm="1">
-        <f t="array" ref="E527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F527" t="e" cm="1">
-        <f t="array" ref="F527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G527" t="e" cm="1">
-        <f t="array" ref="G527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>0.68</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>149</v>
       </c>
